--- a/programming/cpp/cpp-crash-course/tables.xlsx
+++ b/programming/cpp/cpp-crash-course/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grs-dev/Documents/GitHub/routepoison.github.io/programming/cpp/cpp-crash-course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3CBB43-8438-4F43-8BB6-CB838CC703E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62BD2B8F-F813-6540-8673-EC2C1BE6262A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{B4B7BDF0-E010-8649-9FE0-863A4ECF5FCF}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -316,14 +317,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -358,11 +353,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <sz val="16"/>
@@ -409,31 +416,6 @@
     </dxf>
     <dxf>
       <font>
-        <sz val="16"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -476,6 +458,25 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -490,16 +491,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{82BEEB56-EFF8-8F45-8DA3-286BE333A61C}" name="Table4" displayName="Table4" ref="A3:G11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{82BEEB56-EFF8-8F45-8DA3-286BE333A61C}" name="Table4" displayName="Table4" ref="A3:G11" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A3:G11" xr:uid="{495F6CB9-76B3-294F-9234-9502014EFCBC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{CA45F67D-8FB4-E94C-BED8-1FCA62879331}" name="Type" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{D7AC703F-886F-9A43-98EE-BF560EE3F8A3}" name="Signed" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{48796D11-0556-E143-81D2-2F7134712197}" name="Windows" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{5BD3CCF3-7555-4043-849A-5FEF2365B999}" name="Linux/Mac" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3421800B-BE0B-FF4F-8246-864DA6966D36}" name="Window" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{65D09FA2-9C7B-EF40-A33A-BFEE49F7FA4F}" name="Linux/Mac2" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{7807694F-C96D-364F-8B3A-B41A76F2F784}" name="printf format specifier" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{48796D11-0556-E143-81D2-2F7134712197}" name="Windows" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{5BD3CCF3-7555-4043-849A-5FEF2365B999}" name="Linux/Mac" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{3421800B-BE0B-FF4F-8246-864DA6966D36}" name="Window" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{65D09FA2-9C7B-EF40-A33A-BFEE49F7FA4F}" name="Linux/Mac2" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{7807694F-C96D-364F-8B3A-B41A76F2F784}" name="printf format specifier" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -832,241 +833,244 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D33145CD-E69A-5042-B6E7-C4C24AE1451D}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="9"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>2</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <v>2</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="11">
         <v>2</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="10">
-        <v>4</v>
-      </c>
-      <c r="D6" s="11">
-        <v>4</v>
-      </c>
-      <c r="E6" s="11">
-        <v>4</v>
-      </c>
-      <c r="F6" s="13">
-        <v>4</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <v>4</v>
+      </c>
+      <c r="E6" s="9">
+        <v>4</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11">
-        <v>4</v>
-      </c>
-      <c r="E7" s="11">
-        <v>4</v>
-      </c>
-      <c r="F7" s="13">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="C7" s="8">
+        <v>4</v>
+      </c>
+      <c r="D7" s="9">
+        <v>4</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4</v>
+      </c>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10">
-        <v>4</v>
-      </c>
-      <c r="D8" s="11">
-        <v>4</v>
-      </c>
-      <c r="E8" s="11">
-        <v>4</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <v>4</v>
+      </c>
+      <c r="F8" s="11">
         <v>8</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="10">
-        <v>4</v>
-      </c>
-      <c r="D9" s="11">
-        <v>4</v>
-      </c>
-      <c r="E9" s="11">
-        <v>4</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11">
         <v>8</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <v>8</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="9">
         <v>8</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>8</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="11">
         <v>8</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>8</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <v>8</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="13">
         <v>8</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>8</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
